--- a/Data_BB.xlsx
+++ b/Data_BB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goninarn\.julia\dev\Phenology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD1BF28-288D-4CD8-A97B-959B2D4FD31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51602C4F-A625-4D73-B3AD-8A4964C43F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8430" yWindow="855" windowWidth="17280" windowHeight="8925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_Tempo" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -30275,16 +30275,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED843977-F696-4F93-8BD6-0097A596AF4F}">
-  <dimension ref="B1:G49"/>
+  <dimension ref="B1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G49"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2"/>
+    <col min="5" max="5" width="37.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
@@ -30307,12 +30309,32 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>43557</v>
+      </c>
+      <c r="C2">
+        <v>2019</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
-        <v>43557</v>
+        <v>43910</v>
       </c>
       <c r="C3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -30329,10 +30351,10 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>43910</v>
+        <v>44281</v>
       </c>
       <c r="C4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -30349,10 +30371,10 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
-        <v>44281</v>
+        <v>44641</v>
       </c>
       <c r="C5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -30369,10 +30391,10 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
-        <v>44641</v>
+        <v>45020</v>
       </c>
       <c r="C6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
@@ -30389,10 +30411,10 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
-        <v>45020</v>
+        <v>45370</v>
       </c>
       <c r="C7">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
@@ -30409,10 +30431,10 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <v>45370</v>
+        <v>45751</v>
       </c>
       <c r="C8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
@@ -30429,16 +30451,16 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>45751</v>
+        <v>43557</v>
       </c>
       <c r="C9">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -30449,10 +30471,10 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <v>43557</v>
+        <v>43900</v>
       </c>
       <c r="C10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
@@ -30469,10 +30491,10 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <v>43900</v>
+        <v>44269</v>
       </c>
       <c r="C11">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
@@ -30489,10 +30511,10 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>44269</v>
+        <v>44636</v>
       </c>
       <c r="C12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
@@ -30509,10 +30531,10 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <v>44636</v>
+        <v>45012</v>
       </c>
       <c r="C13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -30529,10 +30551,10 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
-        <v>45012</v>
+        <v>45371</v>
       </c>
       <c r="C14">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
@@ -30549,10 +30571,10 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
-        <v>45371</v>
+        <v>45748</v>
       </c>
       <c r="C15">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
@@ -30569,16 +30591,16 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
-        <v>45748</v>
+        <v>43564</v>
       </c>
       <c r="C16">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>1</v>
+      <c r="E16" s="1">
+        <v>3159</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -30589,10 +30611,10 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
-        <v>43564</v>
+        <v>43928</v>
       </c>
       <c r="C17">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
@@ -30609,10 +30631,10 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
-        <v>43928</v>
+        <v>44281</v>
       </c>
       <c r="C18">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D18" t="s">
         <v>36</v>
@@ -30629,10 +30651,10 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
-        <v>44281</v>
+        <v>44643</v>
       </c>
       <c r="C19">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
@@ -30649,10 +30671,10 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <v>44643</v>
+        <v>45019</v>
       </c>
       <c r="C20">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -30669,10 +30691,10 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
-        <v>45019</v>
+        <v>45368</v>
       </c>
       <c r="C21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
@@ -30689,10 +30711,10 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
-        <v>45368</v>
+        <v>45749</v>
       </c>
       <c r="C22">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -30709,16 +30731,16 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <v>45749</v>
+        <v>43569</v>
       </c>
       <c r="C23">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="D23" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="1">
-        <v>3159</v>
+        <v>3176</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -30729,10 +30751,10 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
-        <v>43569</v>
+        <v>43926</v>
       </c>
       <c r="C24">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
@@ -30749,10 +30771,10 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <v>43926</v>
+        <v>44282</v>
       </c>
       <c r="C25">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
@@ -30769,10 +30791,10 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <v>44282</v>
+        <v>44642</v>
       </c>
       <c r="C26">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D26" t="s">
         <v>36</v>
@@ -30789,10 +30811,10 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
-        <v>44642</v>
+        <v>45018</v>
       </c>
       <c r="C27">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D27" t="s">
         <v>36</v>
@@ -30809,10 +30831,10 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <v>45018</v>
+        <v>45372</v>
       </c>
       <c r="C28">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
@@ -30829,10 +30851,10 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
-        <v>45372</v>
+        <v>45758</v>
       </c>
       <c r="C29">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D29" t="s">
         <v>36</v>
@@ -30849,16 +30871,16 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
-        <v>45758</v>
+        <v>43931</v>
       </c>
       <c r="C30">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="D30" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="1">
-        <v>3176</v>
+      <c r="E30" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F30">
         <v>4</v>
@@ -30869,10 +30891,10 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
-        <v>43931</v>
+        <v>44271</v>
       </c>
       <c r="C31">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
@@ -30889,10 +30911,10 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
-        <v>44271</v>
+        <v>44636</v>
       </c>
       <c r="C32">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D32" t="s">
         <v>36</v>
@@ -30909,10 +30931,10 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
-        <v>44636</v>
+        <v>45014</v>
       </c>
       <c r="C33">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D33" t="s">
         <v>36</v>
@@ -30929,10 +30951,10 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
-        <v>45014</v>
+        <v>45369</v>
       </c>
       <c r="C34">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -30949,10 +30971,10 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
-        <v>45369</v>
+        <v>45741</v>
       </c>
       <c r="C35">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
@@ -30969,16 +30991,16 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
-        <v>45741</v>
+        <v>43920</v>
       </c>
       <c r="C36">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -30989,10 +31011,10 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
-        <v>43920</v>
+        <v>44281</v>
       </c>
       <c r="C37">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
@@ -31009,10 +31031,10 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
-        <v>44281</v>
+        <v>44640</v>
       </c>
       <c r="C38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
@@ -31029,10 +31051,10 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
-        <v>44640</v>
+        <v>45019</v>
       </c>
       <c r="C39">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D39" t="s">
         <v>36</v>
@@ -31049,10 +31071,10 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
-        <v>45019</v>
+        <v>45370</v>
       </c>
       <c r="C40">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D40" t="s">
         <v>36</v>
@@ -31069,10 +31091,10 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
-        <v>45370</v>
+        <v>45748</v>
       </c>
       <c r="C41">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D41" t="s">
         <v>36</v>
@@ -31089,16 +31111,16 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
-        <v>45748</v>
+        <v>43557</v>
       </c>
       <c r="C42">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="D42" t="s">
         <v>36</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42">
         <v>4</v>
@@ -31109,10 +31131,10 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
-        <v>43557</v>
+        <v>43921</v>
       </c>
       <c r="C43">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D43" t="s">
         <v>36</v>
@@ -31129,10 +31151,10 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
-        <v>43921</v>
+        <v>44279</v>
       </c>
       <c r="C44">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D44" t="s">
         <v>36</v>
@@ -31149,10 +31171,10 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
-        <v>44279</v>
+        <v>44641</v>
       </c>
       <c r="C45">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D45" t="s">
         <v>36</v>
@@ -31169,10 +31191,10 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
-        <v>44641</v>
+        <v>45021</v>
       </c>
       <c r="C46">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D46" t="s">
         <v>36</v>
@@ -31189,10 +31211,10 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
-        <v>45021</v>
+        <v>45369</v>
       </c>
       <c r="C47">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D47" t="s">
         <v>36</v>
@@ -31209,10 +31231,10 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
-        <v>45369</v>
+        <v>45748</v>
       </c>
       <c r="C48">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D48" t="s">
         <v>36</v>
@@ -31224,26 +31246,6 @@
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="2">
-        <v>45748</v>
-      </c>
-      <c r="C49">
-        <v>2025</v>
-      </c>
-      <c r="D49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49">
-        <v>4</v>
-      </c>
-      <c r="G49" t="s">
         <v>24</v>
       </c>
     </row>
